--- a/data/trans_camb/P25A_10_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_10_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18,68</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,93</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,13</t>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,7</t>
+          <t>-0,65; 2,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,47</t>
+          <t>-0,81; 1,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 31,42</t>
+          <t>-0,35; 2,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,77</t>
+          <t>-0,75; 2,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 0,92</t>
+          <t>0,01; 2,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,68; 23,08</t>
+          <t>-3,17; 0,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,99</t>
+          <t>-3,36; 0,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,73</t>
+          <t>1,22; 7,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,26; 23,33</t>
+          <t>-4,21; 2,31</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 5,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 0,83</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 0,72</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 4,41</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 1,88</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 3,82</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>70,49%</t>
+          <t>59,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>23,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1968,21%</t>
+          <t>83,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,79%</t>
+          <t>52,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-25,93%</t>
+          <t>100,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>398,5%</t>
+          <t>-29,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,12%</t>
+          <t>-28,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-15,48%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>678,27%</t>
+          <t>-8,72%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>77,2%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-14,42%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-20,15%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>89,89%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-0,42%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>82,53%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,18; 653,95</t>
+          <t>-55,94; 466,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,52; 410,51</t>
+          <t>-60,07; 321,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>650,1; 7691,3</t>
+          <t>-35,18; 483,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,02; 24,25</t>
+          <t>-32,52; 274,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,3; 30,57</t>
+          <t>-5,54; 384,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>205,09; 670,57</t>
+          <t>-56,75; 21,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-45,17; 48,65</t>
+          <t>-59,22; 26,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-47,94; 36,65</t>
+          <t>22,36; 210,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>415,38; 1066,39</t>
+          <t>-38,62; 33,95</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>18,82; 159,62</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-45,95; 42,35</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-50,71; 32,91</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>19,44; 190,38</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-30,08; 45,8</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>24,72; 153,3</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,36</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,56</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31,09</t>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,12</t>
+          <t>-1,73; 0,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,45</t>
+          <t>-1,55; 1,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 43,71</t>
+          <t>-1,27; 1,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 1,3</t>
+          <t>0,44; 6,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 1,88</t>
+          <t>-0,19; 6,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,46; 49,41</t>
+          <t>-3,69; 1,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 0,81</t>
+          <t>-3,55; 3,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,14</t>
+          <t>0,86; 8,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,56; 43,71</t>
+          <t>-5,34; 4,74</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 6,38</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 0,78</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 1,88</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 4,43</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 4,29</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 5,21</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,42%</t>
+          <t>-18,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1897,89%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,15%</t>
+          <t>224,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-19,61%</t>
+          <t>149,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>789,57%</t>
+          <t>-23,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-17,25%</t>
+          <t>-15,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1130,56%</t>
+          <t>-3,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>12,25%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-22,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-11,95%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>73,25%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>26,99%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>42,67%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-81,36; 216,92</t>
+          <t>-85,41; 186,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,86; 289,35</t>
+          <t>-76,36; 242,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>387,09; 6811,24</t>
+          <t>-75,76; 355,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,6; 43,1</t>
+          <t>3,58; 845,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 67,54</t>
+          <t>-17,38; 851,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>371,05; 1506,6</t>
+          <t>-58,07; 43,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,26; 44,28</t>
+          <t>-60,44; 114,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,0; 58,94</t>
+          <t>9,29; 268,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>619,43; 2008,02</t>
+          <t>-51,97; 71,97</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-42,15; 123,01</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-54,61; 43,52</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-50,4; 95,48</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 193,82</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-23,8; 103,3</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-17,51; 153,17</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-5,13</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,12</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,6</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 6,57</t>
+          <t>-0,3; 6,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 1,13</t>
+          <t>-3,13; 1,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-1,71; 2,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,05; 1,63</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-9,47; 2,89</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; 2,81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,33; 3,76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-5,68; 2,49</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-6,99; 0,61</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 3,67</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 1,19</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 2,25</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>421,14%</t>
+          <t>349,21%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,79%</t>
+          <t>-31,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-47,4%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-34,48%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-34,89%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-29,27%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-19,71%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-46,02%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-0,51%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-34,44%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-26,26%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1238,30 +1616,60 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-81,54; 33,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,39; 42,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-74,05; 64,68</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-74,15; 64,56</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-74,98; 74,74</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-67,68; 78,89</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-78,05; 32,61</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-49,19; 133,55</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-72,85; 58,31</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-69,88; 97,39</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,88</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,62</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,61</t>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,93</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,74</t>
+          <t>-0,39; 1,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,97</t>
+          <t>-0,73; 0,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,77; 30,87</t>
+          <t>-0,39; 1,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 0,04</t>
+          <t>0,27; 3,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 0,13</t>
+          <t>0,33; 3,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,9; 25,94</t>
+          <t>-2,99; 0,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 0,43</t>
+          <t>-2,97; 0,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,3</t>
+          <t>1,32; 5,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,97; 25,99</t>
+          <t>-2,72; 2,15</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 5,07</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 0,43</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 0,43</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 3,45</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 1,91</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,04; 3,46</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>50,54%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1938,26%</t>
+          <t>44,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-29,1%</t>
+          <t>108,93%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-29,27%</t>
+          <t>115,88%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>392,71%</t>
+          <t>-28,22%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-14,78%</t>
+          <t>-25,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-21,67%</t>
+          <t>66,28%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>674,51%</t>
+          <t>-4,88%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>56,69%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-15,03%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-19,66%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>62,69%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>11,12%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>70,21%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 245,37</t>
+          <t>-30,43; 264,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,5; 151,71</t>
+          <t>-50,83; 148,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>844,56; 4326,23</t>
+          <t>-32,9; 206,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,59; 0,88</t>
+          <t>4,98; 299,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 4,01</t>
+          <t>10,91; 319,98</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>234,13; 585,76</t>
+          <t>-50,35; 6,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-38,63; 18,92</t>
+          <t>-48,88; 16,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,62; 12,45</t>
+          <t>21,3; 141,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>467,52; 947,51</t>
+          <t>-28,32; 30,47</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9,62; 119,13</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-38,18; 17,33</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-43,05; 19,49</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 125,59</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-15,38; 43,41</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>25,42; 120,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
